--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Freelancing\Sprays_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C20F47F-5B36-4093-A35C-B8AC01BD12C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB6D0C-6E8F-4C64-A5B8-AEE85A5DDF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="1728" windowWidth="16380" windowHeight="15276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -975,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Freelancing\Sprays_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB6D0C-6E8F-4C64-A5B8-AEE85A5DDF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8212F990-062A-4CB0-9EB1-BADDEF367645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Freelancing\Sprays_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8212F990-062A-4CB0-9EB1-BADDEF367645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D09024-6F43-495C-82C4-CD43D88F4C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,7 +920,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Freelancing\Sprays_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D09024-6F43-495C-82C4-CD43D88F4C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D51D949-B847-45F8-9478-51C4C459EFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Freelancing\Sprays_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D51D949-B847-45F8-9478-51C4C459EFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB7527-590B-4C20-8072-2892A24F9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,7 +920,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -983,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Freelancing\Sprays_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB7527-590B-4C20-8072-2892A24F9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850DF9F8-2D32-44AC-8D17-1962AB0BFEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Category</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Spray Guns</t>
   </si>
 </sst>
 </file>
@@ -917,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -983,6 +986,14 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Freelancing\Sprays_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850DF9F8-2D32-44AC-8D17-1962AB0BFEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00EF22D-7699-41C2-B059-D57D7030E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Category</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Spray Guns</t>
+  </si>
+  <si>
+    <t>Industries</t>
   </si>
 </sst>
 </file>
@@ -920,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -994,6 +997,14 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
